--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H2">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>2.079008331246</v>
+        <v>30.00901144815111</v>
       </c>
       <c r="R2">
-        <v>18.711074981214</v>
+        <v>270.08110303336</v>
       </c>
       <c r="S2">
-        <v>3.050538838511074E-05</v>
+        <v>0.0004934679844754934</v>
       </c>
       <c r="T2">
-        <v>3.050538838511074E-05</v>
+        <v>0.0004934679844754934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H3">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>136.6387874101763</v>
+        <v>842.5765074869772</v>
       </c>
       <c r="R3">
-        <v>1229.749086691587</v>
+        <v>7583.188567382795</v>
       </c>
       <c r="S3">
-        <v>0.002004907443502111</v>
+        <v>0.01385532247986183</v>
       </c>
       <c r="T3">
-        <v>0.002004907443502111</v>
+        <v>0.01385532247986183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H4">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.6935632229936667</v>
+        <v>15.41355102794022</v>
       </c>
       <c r="R4">
-        <v>6.242069006943001</v>
+        <v>138.721959251462</v>
       </c>
       <c r="S4">
-        <v>1.017668624462453E-05</v>
+        <v>0.0002534603304913747</v>
       </c>
       <c r="T4">
-        <v>1.017668624462453E-05</v>
+        <v>0.0002534603304913748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H5">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>58.88141858863367</v>
+        <v>139.2972516552584</v>
       </c>
       <c r="R5">
-        <v>529.9327672977031</v>
+        <v>1253.675264897326</v>
       </c>
       <c r="S5">
-        <v>0.0008639698628028309</v>
+        <v>0.002290603078880528</v>
       </c>
       <c r="T5">
-        <v>0.000863969862802831</v>
+        <v>0.002290603078880528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H6">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>7.558332275083333</v>
+        <v>87.72255556847932</v>
       </c>
       <c r="R6">
-        <v>68.02499047575</v>
+        <v>789.503000116314</v>
       </c>
       <c r="S6">
-        <v>0.0001109037699031002</v>
+        <v>0.001442509119775887</v>
       </c>
       <c r="T6">
-        <v>0.0001109037699031002</v>
+        <v>0.001442509119775887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H7">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>1.303908659592</v>
+        <v>3.168114690966</v>
       </c>
       <c r="R7">
-        <v>11.735177936328</v>
+        <v>28.513032218694</v>
       </c>
       <c r="S7">
-        <v>1.913231394110106E-05</v>
+        <v>5.209645688726987E-05</v>
       </c>
       <c r="T7">
-        <v>1.913231394110107E-05</v>
+        <v>5.209645688726988E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>669.7120563261241</v>
+        <v>1567.646835022925</v>
       </c>
       <c r="R8">
-        <v>6027.408506935117</v>
+        <v>14108.82151520632</v>
       </c>
       <c r="S8">
-        <v>0.009826716938731786</v>
+        <v>0.02577837411887856</v>
       </c>
       <c r="T8">
-        <v>0.009826716938731786</v>
+        <v>0.02577837411887855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
         <v>44015.52505349219</v>
@@ -1013,10 +1013,10 @@
         <v>396139.7254814297</v>
       </c>
       <c r="S9">
-        <v>0.6458418980584999</v>
+        <v>0.7237910009566673</v>
       </c>
       <c r="T9">
-        <v>0.6458418980584999</v>
+        <v>0.7237910009566672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>223.4178888474602</v>
+        <v>805.1916180965547</v>
       </c>
       <c r="R10">
-        <v>2010.760999627142</v>
+        <v>7246.724562868993</v>
       </c>
       <c r="S10">
-        <v>0.003278221337087481</v>
+        <v>0.01324056560760679</v>
       </c>
       <c r="T10">
-        <v>0.003278221337087481</v>
+        <v>0.01324056560760679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>18967.50259714429</v>
+        <v>7276.777379423196</v>
       </c>
       <c r="R11">
-        <v>170707.5233742986</v>
+        <v>65490.99641480876</v>
       </c>
       <c r="S11">
-        <v>0.2783110701026905</v>
+        <v>0.1196592787838089</v>
       </c>
       <c r="T11">
-        <v>0.2783110701026905</v>
+        <v>0.1196592787838089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>2434.769584260611</v>
+        <v>4582.556370930436</v>
       </c>
       <c r="R12">
-        <v>21912.9262583455</v>
+        <v>41243.00733837392</v>
       </c>
       <c r="S12">
-        <v>0.0357254902156215</v>
+        <v>0.07535552645629377</v>
       </c>
       <c r="T12">
-        <v>0.0357254902156215</v>
+        <v>0.07535552645629376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>420.028788029648</v>
+        <v>165.499785851442</v>
       </c>
       <c r="R13">
-        <v>3780.259092266832</v>
+        <v>1489.498072662978</v>
       </c>
       <c r="S13">
-        <v>0.006163102436483522</v>
+        <v>0.002721477376765391</v>
       </c>
       <c r="T13">
-        <v>0.006163102436483522</v>
+        <v>0.00272147737676539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H14">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.363484366008</v>
+        <v>0.1699708460311111</v>
       </c>
       <c r="R14">
-        <v>3.271359294072</v>
+        <v>1.52973761428</v>
       </c>
       <c r="S14">
-        <v>5.33342343575138E-06</v>
+        <v>2.794999460594843E-06</v>
       </c>
       <c r="T14">
-        <v>5.33342343575138E-06</v>
+        <v>2.794999460594843E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H15">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>23.88930446667511</v>
+        <v>4.772347868604112</v>
       </c>
       <c r="R15">
-        <v>215.003740200076</v>
+        <v>42.951130817437</v>
       </c>
       <c r="S15">
-        <v>0.0003505289036380754</v>
+        <v>7.847645658054765E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003505289036380754</v>
+        <v>7.847645658054765E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H16">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.1212594411515556</v>
+        <v>0.08730225296122221</v>
       </c>
       <c r="R16">
-        <v>1.091334970364</v>
+        <v>0.7857202766509999</v>
       </c>
       <c r="S16">
-        <v>1.779245562461379E-06</v>
+        <v>1.435597666500216E-06</v>
       </c>
       <c r="T16">
-        <v>1.779245562461379E-06</v>
+        <v>1.435597666500216E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H17">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>10.29455956653822</v>
+        <v>0.7889787290914444</v>
       </c>
       <c r="R17">
-        <v>92.65103609884402</v>
+        <v>7.100808561822999</v>
       </c>
       <c r="S17">
-        <v>0.0001510525634318619</v>
+        <v>1.297396096874023E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001510525634318619</v>
+        <v>1.297396096874023E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H18">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>1.321464456777778</v>
+        <v>0.4968599852663333</v>
       </c>
       <c r="R18">
-        <v>11.893180111</v>
+        <v>4.471739867397</v>
       </c>
       <c r="S18">
-        <v>1.938991099038341E-05</v>
+        <v>8.170362289991626E-06</v>
       </c>
       <c r="T18">
-        <v>1.938991099038341E-05</v>
+        <v>8.170362289991626E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1039356666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.311807</v>
+      </c>
+      <c r="I19">
+        <v>0.0001041464509599865</v>
+      </c>
+      <c r="J19">
+        <v>0.0001041464509599865</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.5202786666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.560836</v>
-      </c>
-      <c r="I19">
-        <v>0.0005314290538575102</v>
-      </c>
-      <c r="J19">
-        <v>0.0005314290538575102</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.227969462816</v>
+        <v>0.017944181043</v>
       </c>
       <c r="R19">
-        <v>2.051725165344</v>
+        <v>0.161497629387</v>
       </c>
       <c r="S19">
-        <v>3.345006798976732E-06</v>
+        <v>2.950739936119464E-07</v>
       </c>
       <c r="T19">
-        <v>3.345006798976732E-06</v>
+        <v>2.950739936119464E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H20">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>10.286137889676</v>
+        <v>32.91067081733778</v>
       </c>
       <c r="R20">
-        <v>92.57524100708402</v>
+        <v>296.19603735604</v>
       </c>
       <c r="S20">
-        <v>0.0001509289917656618</v>
+        <v>0.0005411828518252874</v>
       </c>
       <c r="T20">
-        <v>0.0001509289917656618</v>
+        <v>0.0005411828518252873</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H21">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>676.036448366158</v>
+        <v>924.047702278927</v>
       </c>
       <c r="R21">
-        <v>6084.328035295423</v>
+        <v>8316.429320510342</v>
       </c>
       <c r="S21">
-        <v>0.009919515044723652</v>
+        <v>0.01519503426464542</v>
       </c>
       <c r="T21">
-        <v>0.009919515044723652</v>
+        <v>0.01519503426464542</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H22">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>3.431485501862</v>
+        <v>16.90393250318255</v>
       </c>
       <c r="R22">
-        <v>30.883369516758</v>
+        <v>152.135392528643</v>
       </c>
       <c r="S22">
-        <v>5.035035040453177E-05</v>
+        <v>0.0002779681535483972</v>
       </c>
       <c r="T22">
-        <v>5.035035040453177E-05</v>
+        <v>0.0002779681535483972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H23">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>291.322733843702</v>
+        <v>152.7663116429821</v>
       </c>
       <c r="R23">
-        <v>2621.904604593318</v>
+        <v>1374.896804786839</v>
       </c>
       <c r="S23">
-        <v>0.004274592365865236</v>
+        <v>0.002512088211651572</v>
       </c>
       <c r="T23">
-        <v>0.004274592365865236</v>
+        <v>0.002512088211651572</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H24">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>37.3957366255</v>
+        <v>96.20470686140233</v>
       </c>
       <c r="R24">
-        <v>336.5616296295</v>
+        <v>865.8423617526211</v>
       </c>
       <c r="S24">
-        <v>0.0005487094267796879</v>
+        <v>0.001581989559168795</v>
       </c>
       <c r="T24">
-        <v>0.0005487094267796879</v>
+        <v>0.001581989559168794</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H25">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>6.451241231951999</v>
+        <v>3.474448996299</v>
       </c>
       <c r="R25">
-        <v>58.061171087568</v>
+        <v>31.270040966691</v>
       </c>
       <c r="S25">
-        <v>9.465937023387995E-05</v>
+        <v>5.713381616481748E-05</v>
       </c>
       <c r="T25">
-        <v>9.465937023387995E-05</v>
+        <v>5.713381616481747E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>2.293185</v>
       </c>
       <c r="I26">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J26">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>0.53403233643</v>
+        <v>1.250050815266667</v>
       </c>
       <c r="R26">
-        <v>4.80629102787</v>
+        <v>11.2504573374</v>
       </c>
       <c r="S26">
-        <v>7.835881938597987E-06</v>
+        <v>2.055582728432711E-05</v>
       </c>
       <c r="T26">
-        <v>7.835881938597987E-06</v>
+        <v>2.055582728432711E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>2.293185</v>
       </c>
       <c r="I27">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J27">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>35.09823880498166</v>
+        <v>35.09823880498167</v>
       </c>
       <c r="R27">
-        <v>315.8841492448349</v>
+        <v>315.884149244835</v>
       </c>
       <c r="S27">
-        <v>0.0005149981316994737</v>
+        <v>0.0005771552052508864</v>
       </c>
       <c r="T27">
-        <v>0.0005149981316994737</v>
+        <v>0.0005771552052508864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>2.293185</v>
       </c>
       <c r="I28">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J28">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.1781547398683333</v>
+        <v>0.6420645365783332</v>
       </c>
       <c r="R28">
-        <v>1.603392658815</v>
+        <v>5.778580829204999</v>
       </c>
       <c r="S28">
-        <v>2.61407299367326E-06</v>
+        <v>1.055810496510116E-05</v>
       </c>
       <c r="T28">
-        <v>2.614072993673261E-06</v>
+        <v>1.055810496510116E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>2.293185</v>
       </c>
       <c r="I29">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J29">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>15.12479823606833</v>
+        <v>5.802545122051666</v>
       </c>
       <c r="R29">
-        <v>136.123184124615</v>
+        <v>52.222906098465</v>
       </c>
       <c r="S29">
-        <v>0.000221926885767303</v>
+        <v>9.541701335794441E-05</v>
       </c>
       <c r="T29">
-        <v>0.000221926885767303</v>
+        <v>9.541701335794441E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>2.293185</v>
       </c>
       <c r="I30">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J30">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>1.941499600416666</v>
+        <v>3.654157428515</v>
       </c>
       <c r="R30">
-        <v>17.47349640375</v>
+        <v>32.887416856635</v>
       </c>
       <c r="S30">
-        <v>2.848771622033473E-05</v>
+        <v>6.008894042781095E-05</v>
       </c>
       <c r="T30">
-        <v>2.848771622033474E-05</v>
+        <v>6.008894042781094E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,40 +2347,40 @@
         <v>2.293185</v>
       </c>
       <c r="I31">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J31">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>0.33493342836</v>
+        <v>0.131970503565</v>
       </c>
       <c r="R31">
-        <v>3.014400855239999</v>
+        <v>1.187734532085</v>
       </c>
       <c r="S31">
-        <v>4.914494166146512E-06</v>
+        <v>2.170122082060413E-06</v>
       </c>
       <c r="T31">
-        <v>4.914494166146512E-06</v>
+        <v>2.170122082060413E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H32">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>1.00061738211</v>
+        <v>0.05031362066222223</v>
       </c>
       <c r="R32">
-        <v>9.005556438990002</v>
+        <v>0.45282258596</v>
       </c>
       <c r="S32">
-        <v>1.468210656369251E-05</v>
+        <v>8.273568432185404E-07</v>
       </c>
       <c r="T32">
-        <v>1.468210656369251E-05</v>
+        <v>8.273568432185403E-07</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H33">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>65.76363533431056</v>
+        <v>1.412678150023223</v>
       </c>
       <c r="R33">
-        <v>591.872718008795</v>
+        <v>12.714103350209</v>
       </c>
       <c r="S33">
-        <v>0.0009649529573013322</v>
+        <v>2.323007009441086E-05</v>
       </c>
       <c r="T33">
-        <v>0.0009649529573013322</v>
+        <v>2.323007009441086E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H34">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>0.3338088674727778</v>
+        <v>0.02584262266744444</v>
       </c>
       <c r="R34">
-        <v>3.004279807255001</v>
+        <v>0.232583604007</v>
       </c>
       <c r="S34">
-        <v>4.897993430621871E-06</v>
+        <v>4.249559151023019E-07</v>
       </c>
       <c r="T34">
-        <v>4.897993430621871E-06</v>
+        <v>4.249559151023018E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H35">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>28.33936258820612</v>
+        <v>0.2335481490678889</v>
       </c>
       <c r="R35">
-        <v>255.0542632938551</v>
+        <v>2.101933341611</v>
       </c>
       <c r="S35">
-        <v>0.0004158248186632263</v>
+        <v>3.840464208480743E-06</v>
       </c>
       <c r="T35">
-        <v>0.0004158248186632263</v>
+        <v>3.840464208480743E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H36">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>3.637791412638889</v>
+        <v>0.1470771335476667</v>
       </c>
       <c r="R36">
-        <v>32.74012271375</v>
+        <v>1.323694201929</v>
       </c>
       <c r="S36">
-        <v>5.337748687137853E-05</v>
+        <v>2.418535404926564E-06</v>
       </c>
       <c r="T36">
-        <v>5.337748687137853E-05</v>
+        <v>2.418535404926564E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H37">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>0.62756538772</v>
+        <v>0.005311715151000001</v>
       </c>
       <c r="R37">
-        <v>5.64808848948</v>
+        <v>0.047805436359</v>
       </c>
       <c r="S37">
-        <v>9.20829686044484E-06</v>
+        <v>8.734580858155539E-08</v>
       </c>
       <c r="T37">
-        <v>9.20829686044484E-06</v>
+        <v>8.734580858155538E-08</v>
       </c>
     </row>
   </sheetData>
